--- a/data/trans_orig/P21C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38033D6A-05B4-4E9E-B61B-80DFDBFC2B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20385887-2165-4610-B9E6-67A0180781C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E77A027-9CD7-4A29-83C8-EF29F8C7B78F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A7350FC-4014-4399-88C4-13B89D4E7D61}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
   <si>
     <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2007 (Tasa respuesta: 14,16%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>95,41%</t>
   </si>
   <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>82,67%</t>
   </si>
   <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
   </si>
   <si>
     <t>Se lo mandó el médico</t>
@@ -107,28 +107,28 @@
     <t>4,59%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
   </si>
   <si>
     <t>17,33%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>88,71%</t>
   </si>
   <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>91,25%</t>
   </si>
   <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>88,02%</t>
   </si>
   <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>87,81%</t>
   </si>
   <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
   </si>
   <si>
     <t>87,9%</t>
   </si>
   <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
   </si>
   <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,49 +254,55 @@
     <t>89,86%</t>
   </si>
   <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>88,27%</t>
   </si>
   <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
   </si>
   <si>
     <t>88,93%</t>
   </si>
   <si>
-    <t>81,68%</t>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
   </si>
   <si>
     <t>11,73%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>18,32%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -305,1267 +311,1273 @@
     <t>83,84%</t>
   </si>
   <si>
-    <t>68,7%</t>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2012 (Tasa respuesta: 14,65%)</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2015 (Tasa respuesta: 10,5%)</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>90,24%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2012 (Tasa respuesta: 14,65%)</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2015 (Tasa respuesta: 10,5%)</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
+    <t>32,6%</t>
   </si>
   <si>
     <t>27,98%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
   </si>
   <si>
     <t>80,33%</t>
   </si>
   <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
   </si>
   <si>
     <t>83,68%</t>
   </si>
   <si>
-    <t>75,33%</t>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2023 (Tasa respuesta: 16,78%)</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
   </si>
   <si>
     <t>90,92%</t>
   </si>
   <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2023 (Tasa respuesta: 16,78%)</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
   </si>
   <si>
     <t>26,63%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
   </si>
   <si>
     <t>19,74%</t>
@@ -1574,7 +1586,7 @@
     <t>11,4%</t>
   </si>
   <si>
-    <t>41,05%</t>
+    <t>43,38%</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FDC485-FB88-4F09-AEF1-E44AF1DB421B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0F28B2-0F55-4AE9-B287-E585686EC0F6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2611,7 +2623,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,13 +2638,13 @@
         <v>5018</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -2641,13 +2653,13 @@
         <v>8269</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -2656,13 +2668,13 @@
         <v>13287</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,7 +2730,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2730,13 +2742,13 @@
         <v>33085</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -2745,13 +2757,13 @@
         <v>48757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -2760,13 +2772,13 @@
         <v>81843</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2793,13 @@
         <v>6375</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2796,13 +2808,13 @@
         <v>7838</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -2811,13 +2823,13 @@
         <v>14213</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,7 +2885,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2885,13 +2897,13 @@
         <v>71091</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>121</v>
@@ -2900,13 +2912,13 @@
         <v>126430</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>195</v>
@@ -2915,13 +2927,13 @@
         <v>197520</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2948,13 @@
         <v>15117</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -2951,13 +2963,13 @@
         <v>15851</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -2966,13 +2978,13 @@
         <v>30968</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3052,13 @@
         <v>339501</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>477</v>
@@ -3055,13 +3067,13 @@
         <v>494398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>811</v>
@@ -3070,13 +3082,13 @@
         <v>833899</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3103,13 @@
         <v>46069</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>67</v>
@@ -3106,13 +3118,13 @@
         <v>66104</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>111</v>
@@ -3121,13 +3133,13 @@
         <v>112173</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,7 +3195,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3205,7 +3217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A246EBB3-A58B-49F0-A777-1C86CC9AA893}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CFB55C-6B7C-424F-B020-E291F68CC0FE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3222,7 +3234,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3329,13 +3341,13 @@
         <v>51871</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -3344,13 +3356,13 @@
         <v>62067</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>113</v>
@@ -3359,13 +3371,13 @@
         <v>113939</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3392,13 @@
         <v>4078</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3395,13 +3407,13 @@
         <v>10160</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -3410,13 +3422,13 @@
         <v>14237</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3496,13 @@
         <v>82713</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>108</v>
@@ -3499,13 +3511,13 @@
         <v>119168</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>187</v>
@@ -3514,13 +3526,13 @@
         <v>201881</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3547,13 @@
         <v>11649</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -3550,13 +3562,13 @@
         <v>9557</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -3565,13 +3577,13 @@
         <v>21206</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3651,13 @@
         <v>62013</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>77</v>
@@ -3654,13 +3666,13 @@
         <v>83579</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -3669,13 +3681,13 @@
         <v>145592</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3702,13 @@
         <v>5807</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -3705,13 +3717,13 @@
         <v>16791</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -3720,13 +3732,13 @@
         <v>22598</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3806,13 @@
         <v>52962</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -3809,13 +3821,13 @@
         <v>69214</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -3824,13 +3836,13 @@
         <v>122175</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3857,13 @@
         <v>8818</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3860,13 +3872,13 @@
         <v>15088</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -3875,13 +3887,13 @@
         <v>23907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,7 +3949,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3949,13 +3961,13 @@
         <v>35347</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -3964,13 +3976,13 @@
         <v>56670</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>88</v>
@@ -3979,13 +3991,13 @@
         <v>92017</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4012,13 @@
         <v>8644</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -4015,13 +4027,13 @@
         <v>12811</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -4030,13 +4042,13 @@
         <v>21455</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,7 +4104,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4104,13 +4116,13 @@
         <v>62529</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -4119,13 +4131,13 @@
         <v>130959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>178</v>
@@ -4134,13 +4146,13 @@
         <v>193488</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4167,13 @@
         <v>25875</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -4170,13 +4182,13 @@
         <v>22279</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -4185,13 +4197,13 @@
         <v>48154</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4271,13 @@
         <v>347435</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>482</v>
@@ -4274,13 +4286,13 @@
         <v>521658</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>813</v>
@@ -4289,13 +4301,13 @@
         <v>869093</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4322,13 @@
         <v>64871</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>81</v>
@@ -4325,13 +4337,13 @@
         <v>86685</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>140</v>
@@ -4340,13 +4352,13 @@
         <v>151556</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,7 +4414,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4424,7 +4436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F8236A-B9BF-4776-A48C-27B2A5994C26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78ECBEA3-A39D-423B-B799-8BCD3ACE2D0C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4441,7 +4453,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4548,13 +4560,13 @@
         <v>35876</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>171</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -4563,13 +4575,13 @@
         <v>40341</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -4578,13 +4590,13 @@
         <v>76216</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4611,13 @@
         <v>6181</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>181</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4614,13 +4626,13 @@
         <v>7788</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4629,13 +4641,13 @@
         <v>13969</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4715,13 @@
         <v>52506</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>67</v>
@@ -4718,13 +4730,13 @@
         <v>68286</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
         <v>117</v>
@@ -4733,13 +4745,13 @@
         <v>120792</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4766,13 @@
         <v>6527</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -4769,13 +4781,13 @@
         <v>11563</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -4784,13 +4796,13 @@
         <v>18090</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4870,13 @@
         <v>47890</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>95</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -4873,13 +4885,13 @@
         <v>54183</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
         <v>96</v>
@@ -4888,13 +4900,13 @@
         <v>102074</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +4921,13 @@
         <v>10315</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>103</v>
+        <v>316</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -4924,13 +4936,13 @@
         <v>11185</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>124</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -4939,13 +4951,13 @@
         <v>21500</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5025,13 @@
         <v>46568</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -5028,13 +5040,13 @@
         <v>46413</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -5043,13 +5055,13 @@
         <v>92981</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5076,13 @@
         <v>11516</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -5079,13 +5091,13 @@
         <v>18033</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -5094,13 +5106,13 @@
         <v>29549</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,7 +5168,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5168,13 +5180,13 @@
         <v>35547</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -5183,13 +5195,13 @@
         <v>42481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -5198,13 +5210,13 @@
         <v>78028</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5231,13 @@
         <v>8702</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -5234,13 +5246,13 @@
         <v>6513</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -5249,13 +5261,13 @@
         <v>15215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>47</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,7 +5323,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5323,13 +5335,13 @@
         <v>51751</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -5338,13 +5350,13 @@
         <v>92750</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -5353,13 +5365,13 @@
         <v>144500</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,13 +5386,13 @@
         <v>15996</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -5389,13 +5401,13 @@
         <v>17163</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -5404,13 +5416,13 @@
         <v>33160</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5490,13 @@
         <v>270138</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>314</v>
@@ -5493,13 +5505,13 @@
         <v>344454</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>567</v>
@@ -5508,13 +5520,13 @@
         <v>614592</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5541,13 @@
         <v>59237</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>67</v>
@@ -5544,13 +5556,13 @@
         <v>72246</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>123</v>
@@ -5559,13 +5571,13 @@
         <v>131483</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,7 +5633,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5643,7 +5655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81605705-DFD7-45B7-A9EE-C0579F123D57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B7B8DD-4DAE-48F9-B591-5041BCAAA5D3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5660,7 +5672,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5767,13 +5779,13 @@
         <v>41694</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -5782,13 +5794,13 @@
         <v>64066</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -5797,13 +5809,13 @@
         <v>105760</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5830,13 @@
         <v>3707</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5833,13 +5845,13 @@
         <v>10009</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5848,13 +5860,13 @@
         <v>13716</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5934,13 @@
         <v>54407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H7" s="7">
         <v>66</v>
@@ -5937,13 +5949,13 @@
         <v>67178</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M7" s="7">
         <v>105</v>
@@ -5952,13 +5964,13 @@
         <v>121585</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5985,13 @@
         <v>6938</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -5988,13 +6000,13 @@
         <v>7058</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -6003,13 +6015,13 @@
         <v>13996</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6089,13 @@
         <v>76691</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H10" s="7">
         <v>125</v>
@@ -6092,13 +6104,13 @@
         <v>82817</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M10" s="7">
         <v>199</v>
@@ -6107,13 +6119,13 @@
         <v>159508</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6140,13 @@
         <v>7370</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -6143,13 +6155,13 @@
         <v>15019</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M11" s="7">
         <v>29</v>
@@ -6158,13 +6170,13 @@
         <v>22389</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6244,13 @@
         <v>111316</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -6247,13 +6259,13 @@
         <v>103840</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M13" s="7">
         <v>272</v>
@@ -6262,13 +6274,13 @@
         <v>215156</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6295,13 @@
         <v>5905</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -6298,13 +6310,13 @@
         <v>11903</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -6313,13 +6325,13 @@
         <v>17808</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,7 +6387,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6387,13 +6399,13 @@
         <v>82515</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -6402,13 +6414,13 @@
         <v>89542</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>244</v>
@@ -6417,13 +6429,13 @@
         <v>172056</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6450,13 @@
         <v>5663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -6453,10 +6465,10 @@
         <v>16813</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>476</v>
@@ -6530,7 +6542,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6578,7 +6590,7 @@
         <v>487</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6605,13 @@
         <v>15153</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H20" s="7">
         <v>53</v>
@@ -6608,13 +6620,13 @@
         <v>142497</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
@@ -6623,13 +6635,13 @@
         <v>157650</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6709,13 @@
         <v>448218</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>345</v>
+        <v>498</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="H22" s="7">
         <v>828</v>
@@ -6712,13 +6724,13 @@
         <v>560190</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="M22" s="7">
         <v>1288</v>
@@ -6727,13 +6739,13 @@
         <v>1008408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6760,13 @@
         <v>44737</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>353</v>
+        <v>507</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H23" s="7">
         <v>130</v>
@@ -6763,13 +6775,13 @@
         <v>203299</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M23" s="7">
         <v>179</v>
@@ -6778,13 +6790,13 @@
         <v>248036</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,7 +6852,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21C-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20385887-2165-4610-B9E6-67A0180781C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75EB5A97-5FAB-4CCE-959D-05E4AE558434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A7350FC-4014-4399-88C4-13B89D4E7D61}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{897A8386-A5CB-419C-8A1A-EE94EC144BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="496">
   <si>
     <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2007 (Tasa respuesta: 14,16%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>95,41%</t>
   </si>
   <si>
-    <t>88,22%</t>
+    <t>86,38%</t>
   </si>
   <si>
     <t>98,8%</t>
@@ -86,19 +86,19 @@
     <t>82,67%</t>
   </si>
   <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
   </si>
   <si>
     <t>Se lo mandó el médico</t>
@@ -110,25 +110,25 @@
     <t>1,2%</t>
   </si>
   <si>
-    <t>11,78%</t>
+    <t>13,62%</t>
   </si>
   <si>
     <t>17,33%</t>
   </si>
   <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,49 @@
     <t>88,71%</t>
   </si>
   <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>78,75%</t>
   </si>
   <si>
     <t>91,25%</t>
   </si>
   <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
+    <t>21,25%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +191,55 @@
     <t>88,02%</t>
   </si>
   <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
   </si>
   <si>
     <t>87,81%</t>
   </si>
   <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
   </si>
   <si>
     <t>87,9%</t>
   </si>
   <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
   </si>
   <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,1221 +248,1173 @@
     <t>89,86%</t>
   </si>
   <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>88,27%</t>
   </si>
   <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>88,93%</t>
   </si>
   <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
     <t>81,61%</t>
   </si>
   <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>18,39%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2012 (Tasa respuesta: 14,65%)</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2016 (Tasa respuesta: 10,5%)</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2023 (Tasa respuesta: 16,78%)</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2012 (Tasa respuesta: 14,65%)</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2015 (Tasa respuesta: 10,5%)</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2023 (Tasa respuesta: 16,78%)</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
     <t>22,0%</t>
   </si>
   <si>
@@ -1535,9 +1481,6 @@
     <t>73,86%</t>
   </si>
   <si>
-    <t>90,92%</t>
-  </si>
-  <si>
     <t>87,29%</t>
   </si>
   <si>
@@ -1560,9 +1503,6 @@
   </si>
   <si>
     <t>88,6%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
   </si>
   <si>
     <t>6,68%</t>
@@ -1998,7 +1938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0F28B2-0F55-4AE9-B287-E585686EC0F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEFD676-13AF-448B-84DD-DCB8736A2892}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2283,7 +2223,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>113</v>
@@ -2292,13 +2232,13 @@
         <v>122425</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>170</v>
@@ -2307,13 +2247,13 @@
         <v>182372</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,13 +2268,13 @@
         <v>7629</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -2343,13 +2283,13 @@
         <v>11738</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -2358,13 +2298,13 @@
         <v>19367</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,7 +2360,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2432,13 +2372,13 @@
         <v>63968</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -2447,13 +2387,13 @@
         <v>81885</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>141</v>
@@ -2462,13 +2402,13 @@
         <v>145852</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2423,13 @@
         <v>8708</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -2498,13 +2438,13 @@
         <v>11369</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -2513,13 +2453,13 @@
         <v>20078</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,7 +2515,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2587,13 +2527,13 @@
         <v>44482</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -2602,13 +2542,13 @@
         <v>62242</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -2617,13 +2557,13 @@
         <v>106724</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2578,13 @@
         <v>5018</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -2653,13 +2593,13 @@
         <v>8269</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -2668,13 +2608,13 @@
         <v>13287</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,7 +2670,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2742,13 +2682,13 @@
         <v>33085</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -2757,13 +2697,13 @@
         <v>48757</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -2772,13 +2712,13 @@
         <v>81843</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2733,13 @@
         <v>6375</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2808,13 +2748,13 @@
         <v>7838</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -2823,13 +2763,13 @@
         <v>14213</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,7 +2825,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2897,13 +2837,13 @@
         <v>71091</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>121</v>
@@ -2912,13 +2852,13 @@
         <v>126430</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>195</v>
@@ -2927,13 +2867,13 @@
         <v>197520</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2888,13 @@
         <v>15117</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -2963,13 +2903,13 @@
         <v>15851</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -2978,13 +2918,13 @@
         <v>30968</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +2992,13 @@
         <v>339501</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>477</v>
@@ -3067,13 +3007,13 @@
         <v>494398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>811</v>
@@ -3082,13 +3022,13 @@
         <v>833899</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3043,13 @@
         <v>46069</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>67</v>
@@ -3118,13 +3058,13 @@
         <v>66104</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>111</v>
@@ -3133,13 +3073,13 @@
         <v>112173</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,7 +3135,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CFB55C-6B7C-424F-B020-E291F68CC0FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB1E5F1-DCE0-47B1-BB92-F368C6FC1A70}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3234,7 +3174,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3341,13 +3281,13 @@
         <v>51871</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -3356,13 +3296,13 @@
         <v>62067</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>113</v>
@@ -3371,13 +3311,13 @@
         <v>113939</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3332,13 @@
         <v>4078</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3407,13 +3347,13 @@
         <v>10160</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -3422,13 +3362,13 @@
         <v>14237</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3436,13 @@
         <v>82713</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>108</v>
@@ -3511,13 +3451,13 @@
         <v>119168</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>187</v>
@@ -3526,13 +3466,13 @@
         <v>201881</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3487,13 @@
         <v>11649</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -3562,13 +3502,13 @@
         <v>9557</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -3577,13 +3517,13 @@
         <v>21206</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,7 +3579,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3651,13 +3591,13 @@
         <v>62013</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>77</v>
@@ -3666,13 +3606,13 @@
         <v>83579</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -3681,13 +3621,13 @@
         <v>145592</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3642,13 @@
         <v>5807</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -3717,13 +3657,13 @@
         <v>16791</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -3732,13 +3672,13 @@
         <v>22598</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,7 +3734,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3806,13 +3746,13 @@
         <v>52962</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -3821,13 +3761,13 @@
         <v>69214</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -3836,13 +3776,13 @@
         <v>122175</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3797,13 @@
         <v>8818</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3872,13 +3812,13 @@
         <v>15088</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -3887,13 +3827,13 @@
         <v>23907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,7 +3889,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3961,13 +3901,13 @@
         <v>35347</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -3976,13 +3916,13 @@
         <v>56670</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>88</v>
@@ -3991,13 +3931,13 @@
         <v>92017</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +3952,13 @@
         <v>8644</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -4027,13 +3967,13 @@
         <v>12811</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -4042,13 +3982,13 @@
         <v>21455</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,7 +4044,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4116,13 +4056,13 @@
         <v>62529</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -4131,13 +4071,13 @@
         <v>130959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>178</v>
@@ -4146,13 +4086,13 @@
         <v>193488</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4107,13 @@
         <v>25875</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -4182,13 +4122,13 @@
         <v>22279</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -4197,13 +4137,13 @@
         <v>48154</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4211,13 @@
         <v>347435</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>482</v>
@@ -4286,13 +4226,13 @@
         <v>521658</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>813</v>
@@ -4301,13 +4241,13 @@
         <v>869093</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4262,13 @@
         <v>64871</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>81</v>
@@ -4337,13 +4277,13 @@
         <v>86685</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>140</v>
@@ -4352,13 +4292,13 @@
         <v>151556</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,7 +4354,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4436,7 +4376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78ECBEA3-A39D-423B-B799-8BCD3ACE2D0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D513E9-DDC7-4C27-8B8B-02239417A682}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4453,7 +4393,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4560,13 +4500,13 @@
         <v>35876</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -4575,13 +4515,13 @@
         <v>40341</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -4590,13 +4530,13 @@
         <v>76216</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4551,13 @@
         <v>6181</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4626,13 +4566,13 @@
         <v>7788</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4641,13 +4581,13 @@
         <v>13969</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4655,13 @@
         <v>52506</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>67</v>
@@ -4730,13 +4670,13 @@
         <v>68286</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>117</v>
@@ -4745,13 +4685,13 @@
         <v>120792</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4706,13 @@
         <v>6527</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -4781,13 +4721,13 @@
         <v>11563</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -4796,13 +4736,13 @@
         <v>18090</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,7 +4798,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4870,13 +4810,13 @@
         <v>47890</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -4885,13 +4825,13 @@
         <v>54183</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>96</v>
@@ -4900,13 +4840,13 @@
         <v>102074</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4861,13 @@
         <v>10315</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -4936,13 +4876,13 @@
         <v>11185</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>124</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -4951,13 +4891,13 @@
         <v>21500</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,7 +4953,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5025,13 +4965,13 @@
         <v>46568</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -5040,13 +4980,13 @@
         <v>46413</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -5055,13 +4995,13 @@
         <v>92981</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5016,13 @@
         <v>11516</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -5091,13 +5031,13 @@
         <v>18033</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -5106,13 +5046,13 @@
         <v>29549</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,7 +5108,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5180,13 +5120,13 @@
         <v>35547</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>53</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -5195,13 +5135,13 @@
         <v>42481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -5210,13 +5150,13 @@
         <v>78028</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>38</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5171,13 @@
         <v>8702</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>349</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -5246,13 +5186,13 @@
         <v>6513</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -5261,13 +5201,13 @@
         <v>15215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>47</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,7 +5263,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5335,13 +5275,13 @@
         <v>51751</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -5350,13 +5290,13 @@
         <v>92750</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -5365,13 +5305,13 @@
         <v>144500</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5326,13 @@
         <v>15996</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -5401,13 +5341,13 @@
         <v>17163</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -5416,13 +5356,13 @@
         <v>33160</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5430,13 @@
         <v>270138</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>56</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>164</v>
       </c>
       <c r="H22" s="7">
         <v>314</v>
@@ -5505,13 +5445,13 @@
         <v>344454</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>567</v>
@@ -5520,13 +5460,13 @@
         <v>614592</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5481,13 @@
         <v>59237</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>66</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>174</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="H23" s="7">
         <v>67</v>
@@ -5556,13 +5496,13 @@
         <v>72246</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="M23" s="7">
         <v>123</v>
@@ -5571,13 +5511,13 @@
         <v>131483</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,7 +5573,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5655,7 +5595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B7B8DD-4DAE-48F9-B591-5041BCAAA5D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09758AC-FD19-4BF4-AA04-47690A501717}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5672,7 +5612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5779,13 +5719,13 @@
         <v>41694</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -5794,13 +5734,13 @@
         <v>64066</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -5809,13 +5749,13 @@
         <v>105760</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5770,13 @@
         <v>3707</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5845,13 +5785,13 @@
         <v>10009</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5860,13 +5800,13 @@
         <v>13716</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5874,13 @@
         <v>54407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>414</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>66</v>
@@ -5949,13 +5889,13 @@
         <v>67178</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>415</v>
+        <v>94</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="M7" s="7">
         <v>105</v>
@@ -5964,13 +5904,13 @@
         <v>121585</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +5925,13 @@
         <v>6938</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>421</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -6000,13 +5940,13 @@
         <v>7058</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>424</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -6015,13 +5955,13 @@
         <v>13996</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,7 +6017,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6089,13 +6029,13 @@
         <v>76691</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="H10" s="7">
         <v>125</v>
@@ -6104,13 +6044,13 @@
         <v>82817</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="M10" s="7">
         <v>199</v>
@@ -6119,13 +6059,13 @@
         <v>159508</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6080,13 @@
         <v>7370</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -6155,13 +6095,13 @@
         <v>15019</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="M11" s="7">
         <v>29</v>
@@ -6170,13 +6110,13 @@
         <v>22389</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,7 +6172,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6244,13 +6184,13 @@
         <v>111316</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -6259,13 +6199,13 @@
         <v>103840</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="M13" s="7">
         <v>272</v>
@@ -6274,13 +6214,13 @@
         <v>215156</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6235,13 @@
         <v>5905</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -6310,13 +6250,13 @@
         <v>11903</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -6325,13 +6265,13 @@
         <v>17808</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,7 +6327,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6399,13 +6339,13 @@
         <v>82515</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -6414,13 +6354,13 @@
         <v>89542</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>449</v>
       </c>
       <c r="M16" s="7">
         <v>244</v>
@@ -6429,13 +6369,13 @@
         <v>172056</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6390,13 @@
         <v>5663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -6465,13 +6405,13 @@
         <v>16813</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>457</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -6480,13 +6420,13 @@
         <v>22477</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,7 +6482,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6554,13 +6494,13 @@
         <v>81595</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="H19" s="7">
         <v>285</v>
@@ -6569,13 +6509,13 @@
         <v>152747</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="M19" s="7">
         <v>413</v>
@@ -6584,13 +6524,13 @@
         <v>234342</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6545,13 @@
         <v>15153</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7">
         <v>53</v>
@@ -6620,13 +6560,13 @@
         <v>142497</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
@@ -6635,13 +6575,13 @@
         <v>157650</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6649,13 @@
         <v>448218</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>307</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="H22" s="7">
         <v>828</v>
@@ -6724,13 +6664,13 @@
         <v>560190</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="M22" s="7">
         <v>1288</v>
@@ -6739,13 +6679,13 @@
         <v>1008408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6700,13 @@
         <v>44737</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>507</v>
+        <v>314</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="H23" s="7">
         <v>130</v>
@@ -6775,13 +6715,13 @@
         <v>203299</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="M23" s="7">
         <v>179</v>
@@ -6790,13 +6730,13 @@
         <v>248036</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,7 +6792,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
